--- a/PyWinDemo/ExcelSample.xlsx
+++ b/PyWinDemo/ExcelSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="10770" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Sangeeth's Sample Excel Workbook</t>
+    <t>Joseph's Sample Excel Workbook</t>
   </si>
   <si>
     <t>This is a demo auto generated excel</t>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
